--- a/Proceso/Cronograma_ciencias.xlsx
+++ b/Proceso/Cronograma_ciencias.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Gestion rec Ciencias\Proceso\2- Reunión#2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\rec-ciencias-contratacion\Proceso\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -513,6 +513,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -521,9 +524,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -808,7 +808,7 @@
   <dimension ref="B1:ED40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ8" sqref="AJ8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -821,197 +821,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:134" x14ac:dyDescent="0.3">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="33" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" spans="2:134" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="33" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33" t="s">
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33" t="s">
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33" t="s">
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33" t="s">
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33" t="s">
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33"/>
-      <c r="AR2" s="33" t="s">
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
+      <c r="AQ2" s="34"/>
+      <c r="AR2" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="33"/>
-      <c r="AU2" s="33"/>
-      <c r="AV2" s="33"/>
-      <c r="AW2" s="33" t="s">
+      <c r="AS2" s="34"/>
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="34"/>
+      <c r="AV2" s="34"/>
+      <c r="AW2" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="AX2" s="33"/>
-      <c r="AY2" s="33"/>
-      <c r="AZ2" s="33"/>
-      <c r="BA2" s="33"/>
-      <c r="BB2" s="33" t="s">
+      <c r="AX2" s="34"/>
+      <c r="AY2" s="34"/>
+      <c r="AZ2" s="34"/>
+      <c r="BA2" s="34"/>
+      <c r="BB2" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="BC2" s="33"/>
-      <c r="BD2" s="33"/>
-      <c r="BE2" s="33"/>
-      <c r="BF2" s="33"/>
-      <c r="BG2" s="33" t="s">
+      <c r="BC2" s="34"/>
+      <c r="BD2" s="34"/>
+      <c r="BE2" s="34"/>
+      <c r="BF2" s="34"/>
+      <c r="BG2" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="BH2" s="33"/>
-      <c r="BI2" s="33"/>
-      <c r="BJ2" s="33"/>
-      <c r="BK2" s="33"/>
-      <c r="BL2" s="33" t="s">
+      <c r="BH2" s="34"/>
+      <c r="BI2" s="34"/>
+      <c r="BJ2" s="34"/>
+      <c r="BK2" s="34"/>
+      <c r="BL2" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="BM2" s="33"/>
-      <c r="BN2" s="33"/>
-      <c r="BO2" s="33"/>
-      <c r="BP2" s="33"/>
-      <c r="BQ2" s="33" t="s">
+      <c r="BM2" s="34"/>
+      <c r="BN2" s="34"/>
+      <c r="BO2" s="34"/>
+      <c r="BP2" s="34"/>
+      <c r="BQ2" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="BR2" s="33"/>
-      <c r="BS2" s="33"/>
-      <c r="BT2" s="33"/>
-      <c r="BU2" s="33"/>
-      <c r="BV2" s="33" t="s">
+      <c r="BR2" s="34"/>
+      <c r="BS2" s="34"/>
+      <c r="BT2" s="34"/>
+      <c r="BU2" s="34"/>
+      <c r="BV2" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="BW2" s="33"/>
-      <c r="BX2" s="33"/>
-      <c r="BY2" s="33"/>
-      <c r="BZ2" s="33"/>
-      <c r="CA2" s="33" t="s">
+      <c r="BW2" s="34"/>
+      <c r="BX2" s="34"/>
+      <c r="BY2" s="34"/>
+      <c r="BZ2" s="34"/>
+      <c r="CA2" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="CB2" s="33"/>
-      <c r="CC2" s="33"/>
-      <c r="CD2" s="33"/>
-      <c r="CE2" s="33"/>
-      <c r="CF2" s="33" t="s">
+      <c r="CB2" s="34"/>
+      <c r="CC2" s="34"/>
+      <c r="CD2" s="34"/>
+      <c r="CE2" s="34"/>
+      <c r="CF2" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="CG2" s="33"/>
-      <c r="CH2" s="33"/>
-      <c r="CI2" s="33"/>
-      <c r="CJ2" s="33"/>
-      <c r="CK2" s="33" t="s">
+      <c r="CG2" s="34"/>
+      <c r="CH2" s="34"/>
+      <c r="CI2" s="34"/>
+      <c r="CJ2" s="34"/>
+      <c r="CK2" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="CL2" s="33"/>
-      <c r="CM2" s="33"/>
-      <c r="CN2" s="33"/>
-      <c r="CO2" s="33"/>
-      <c r="CP2" s="33" t="s">
+      <c r="CL2" s="34"/>
+      <c r="CM2" s="34"/>
+      <c r="CN2" s="34"/>
+      <c r="CO2" s="34"/>
+      <c r="CP2" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="CQ2" s="33"/>
-      <c r="CR2" s="33"/>
-      <c r="CS2" s="33"/>
-      <c r="CT2" s="33"/>
-      <c r="CU2" s="33" t="s">
+      <c r="CQ2" s="34"/>
+      <c r="CR2" s="34"/>
+      <c r="CS2" s="34"/>
+      <c r="CT2" s="34"/>
+      <c r="CU2" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="CV2" s="33"/>
-      <c r="CW2" s="33"/>
-      <c r="CX2" s="33"/>
-      <c r="CY2" s="33"/>
-      <c r="CZ2" s="33" t="s">
+      <c r="CV2" s="34"/>
+      <c r="CW2" s="34"/>
+      <c r="CX2" s="34"/>
+      <c r="CY2" s="34"/>
+      <c r="CZ2" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="DA2" s="33"/>
-      <c r="DB2" s="33"/>
-      <c r="DC2" s="33"/>
-      <c r="DD2" s="33"/>
-      <c r="DE2" s="33" t="s">
+      <c r="DA2" s="34"/>
+      <c r="DB2" s="34"/>
+      <c r="DC2" s="34"/>
+      <c r="DD2" s="34"/>
+      <c r="DE2" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="DF2" s="33"/>
-      <c r="DG2" s="33"/>
-      <c r="DH2" s="33"/>
-      <c r="DI2" s="33"/>
-      <c r="DJ2" s="33" t="s">
+      <c r="DF2" s="34"/>
+      <c r="DG2" s="34"/>
+      <c r="DH2" s="34"/>
+      <c r="DI2" s="34"/>
+      <c r="DJ2" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="DK2" s="33"/>
-      <c r="DL2" s="33"/>
-      <c r="DM2" s="33"/>
-      <c r="DN2" s="33"/>
-      <c r="DO2" s="33" t="s">
+      <c r="DK2" s="34"/>
+      <c r="DL2" s="34"/>
+      <c r="DM2" s="34"/>
+      <c r="DN2" s="34"/>
+      <c r="DO2" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="DP2" s="33"/>
-      <c r="DQ2" s="33"/>
-      <c r="DR2" s="33"/>
-      <c r="DS2" s="33"/>
-      <c r="DT2" s="33" t="s">
+      <c r="DP2" s="34"/>
+      <c r="DQ2" s="34"/>
+      <c r="DR2" s="34"/>
+      <c r="DS2" s="34"/>
+      <c r="DT2" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="DU2" s="33"/>
-      <c r="DV2" s="33"/>
-      <c r="DW2" s="33"/>
-      <c r="DX2" s="33"/>
-      <c r="DY2" s="33" t="s">
+      <c r="DU2" s="34"/>
+      <c r="DV2" s="34"/>
+      <c r="DW2" s="34"/>
+      <c r="DX2" s="34"/>
+      <c r="DY2" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="DZ2" s="33"/>
-      <c r="EA2" s="33"/>
-      <c r="EB2" s="33"/>
-      <c r="EC2" s="33"/>
+      <c r="DZ2" s="34"/>
+      <c r="EA2" s="34"/>
+      <c r="EB2" s="34"/>
+      <c r="EC2" s="34"/>
       <c r="ED2" s="8"/>
     </row>
     <row r="3" spans="2:134" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -1578,35 +1578,35 @@
       <c r="W9" s="20"/>
       <c r="X9" s="19"/>
       <c r="Z9" s="10"/>
-      <c r="CE9" s="34" t="s">
+      <c r="CE9" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="CF9" s="34"/>
-      <c r="CG9" s="34"/>
-      <c r="CH9" s="34"/>
-      <c r="CI9" s="34"/>
-      <c r="CJ9" s="34"/>
-      <c r="CK9" s="34"/>
-      <c r="CL9" s="34"/>
-      <c r="CM9" s="34"/>
-      <c r="CN9" s="34"/>
-      <c r="CO9" s="34"/>
-      <c r="CP9" s="34"/>
-      <c r="CQ9" s="34"/>
-      <c r="CR9" s="34"/>
-      <c r="CS9" s="34"/>
-      <c r="CT9" s="34"/>
-      <c r="CU9" s="34"/>
-      <c r="CV9" s="34"/>
-      <c r="CW9" s="34"/>
-      <c r="CX9" s="34"/>
-      <c r="CY9" s="34"/>
-      <c r="CZ9" s="34"/>
-      <c r="DA9" s="34"/>
-      <c r="DB9" s="34"/>
-      <c r="DC9" s="34"/>
-      <c r="DD9" s="34"/>
-      <c r="DE9" s="34"/>
+      <c r="CF9" s="35"/>
+      <c r="CG9" s="35"/>
+      <c r="CH9" s="35"/>
+      <c r="CI9" s="35"/>
+      <c r="CJ9" s="35"/>
+      <c r="CK9" s="35"/>
+      <c r="CL9" s="35"/>
+      <c r="CM9" s="35"/>
+      <c r="CN9" s="35"/>
+      <c r="CO9" s="35"/>
+      <c r="CP9" s="35"/>
+      <c r="CQ9" s="35"/>
+      <c r="CR9" s="35"/>
+      <c r="CS9" s="35"/>
+      <c r="CT9" s="35"/>
+      <c r="CU9" s="35"/>
+      <c r="CV9" s="35"/>
+      <c r="CW9" s="35"/>
+      <c r="CX9" s="35"/>
+      <c r="CY9" s="35"/>
+      <c r="CZ9" s="35"/>
+      <c r="DA9" s="35"/>
+      <c r="DB9" s="35"/>
+      <c r="DC9" s="35"/>
+      <c r="DD9" s="35"/>
+      <c r="DE9" s="35"/>
       <c r="DY9" s="5"/>
       <c r="DZ9" s="5"/>
       <c r="EA9" s="5"/>
@@ -1685,7 +1685,7 @@
       <c r="EB11" s="5"/>
       <c r="EC11" s="10"/>
     </row>
-    <row r="12" spans="2:134" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:134" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="29" t="s">
         <v>21</v>
       </c>
@@ -4642,18 +4642,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="DY2:EC2"/>
-    <mergeCell ref="CK2:CO2"/>
-    <mergeCell ref="CP2:CT2"/>
-    <mergeCell ref="CU2:CY2"/>
-    <mergeCell ref="CZ2:DD2"/>
-    <mergeCell ref="DE2:DI2"/>
-    <mergeCell ref="DJ2:DN2"/>
-    <mergeCell ref="BQ2:BU2"/>
-    <mergeCell ref="BV2:BZ2"/>
-    <mergeCell ref="CA2:CE2"/>
-    <mergeCell ref="DO2:DS2"/>
-    <mergeCell ref="DT2:DX2"/>
     <mergeCell ref="X2:AB2"/>
     <mergeCell ref="CE9:DE9"/>
     <mergeCell ref="B2:C2"/>
@@ -4670,6 +4658,18 @@
     <mergeCell ref="BB2:BF2"/>
     <mergeCell ref="BG2:BK2"/>
     <mergeCell ref="BL2:BP2"/>
+    <mergeCell ref="BQ2:BU2"/>
+    <mergeCell ref="BV2:BZ2"/>
+    <mergeCell ref="CA2:CE2"/>
+    <mergeCell ref="DO2:DS2"/>
+    <mergeCell ref="DT2:DX2"/>
+    <mergeCell ref="DY2:EC2"/>
+    <mergeCell ref="CK2:CO2"/>
+    <mergeCell ref="CP2:CT2"/>
+    <mergeCell ref="CU2:CY2"/>
+    <mergeCell ref="CZ2:DD2"/>
+    <mergeCell ref="DE2:DI2"/>
+    <mergeCell ref="DJ2:DN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
